--- a/LearnProtractor/test_data/Angular Calculator Data.xlsx
+++ b/LearnProtractor/test_data/Angular Calculator Data.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3"/>
